--- a/nodeAPIs/sources.xlsx
+++ b/nodeAPIs/sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muthu\Documents\cwd3\CompleteWebDev-Part3\nodeAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F047EAD-84B9-4B14-9A5A-9660C1E4BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE287BD3-2704-4CD4-B172-CC8DFA483D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">programming with mosh </t>
   </si>
@@ -61,6 +61,57 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F1lI-Fhgjew&amp;list=PLwGdqUZWnOp00IbeN0OtL9dmnasipZ9x8&amp;index=19&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>TOPICS</t>
+  </si>
+  <si>
+    <t>API ENDPOINTS</t>
+  </si>
+  <si>
+    <t>PATHS</t>
+  </si>
+  <si>
+    <t>PARAMETERS</t>
+  </si>
+  <si>
+    <t>API AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>POSTMAN</t>
+  </si>
+  <si>
+    <t>JSON VIEWER PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON </t>
+  </si>
+  <si>
+    <t>NODE HTTPS MODULE</t>
+  </si>
+  <si>
+    <t>PARSE JSON</t>
+  </si>
+  <si>
+    <t>EXPRESS TO RENDER A WEBSITE WITH LIVE API DATA</t>
+  </si>
+  <si>
+    <t>BODY-PARSER</t>
+  </si>
+  <si>
+    <t>MAILCHIMP API</t>
+  </si>
+  <si>
+    <t>SIGNUP PAGE</t>
+  </si>
+  <si>
+    <t>POSTING DATA TO MAILCHIMPS SERVERS</t>
+  </si>
+  <si>
+    <t>ADDING SUCCESS AND FAILURE PAGES</t>
+  </si>
+  <si>
+    <t>DEPLOYING YOUR SERVER WITH HROKU</t>
   </si>
 </sst>
 </file>
@@ -378,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:E9"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +440,15 @@
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -397,7 +456,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -405,7 +467,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -413,7 +478,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -421,7 +489,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -429,12 +500,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/nodeAPIs/sources.xlsx
+++ b/nodeAPIs/sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muthu\Documents\cwd3\CompleteWebDev-Part3\nodeAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE287BD3-2704-4CD4-B172-CC8DFA483D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99503B08-2972-4058-9ACB-BDC384C6DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">programming with mosh </t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>DEPLOYING YOUR SERVER WITH HROKU</t>
+  </si>
+  <si>
+    <t>freecodecamp</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_7UQPve99r4&amp;pp=ygURZnJlZWNvZGVjYW1wIGNydWQ%3D</t>
   </si>
 </sst>
 </file>
@@ -127,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +445,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +462,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -514,6 +527,12 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
